--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/10/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.58179999999998</v>
+        <v>-20.12229999999998</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.96160000000002</v>
+        <v>-21.95090000000002</v>
       </c>
       <c r="B7" t="n">
-        <v>4.846200000000003</v>
+        <v>4.748200000000004</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.721599999999996</v>
+        <v>5.055299999999996</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.6817</v>
+        <v>-21.53149999999998</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.00429999999999</v>
+        <v>-11.5799</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.15240000000001</v>
+        <v>-12.33900000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.52320000000001</v>
+        <v>10.4876</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -805,7 +805,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>10.2826</v>
+        <v>10.346</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.790900000000004</v>
+        <v>8.682600000000006</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.98699999999999</v>
+        <v>-22.0141</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.43819999999998</v>
+        <v>-21.34269999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.2432</v>
+        <v>-21.16149999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,13 +1009,13 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>8.593500000000002</v>
+        <v>8.312900000000003</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-8.065400000000002</v>
+        <v>-8.043699999999999</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.70540000000001</v>
+        <v>-12.6198</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.69159999999999</v>
+        <v>-20.06829999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1162,13 +1162,13 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>5.233100000000002</v>
+        <v>5.375100000000003</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.415799999999996</v>
+        <v>-8.429499999999999</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.971400000000004</v>
+        <v>4.961300000000001</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1216,7 +1216,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.39899999999999</v>
+        <v>-14.59799999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.362899999999999</v>
+        <v>-7.506599999999999</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1281,10 +1281,10 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>5.399399999999999</v>
+        <v>5.248099999999997</v>
       </c>
       <c r="C50" t="n">
-        <v>-12.56989999999999</v>
+        <v>-13.02929999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.903100000000002</v>
+        <v>5.827099999999996</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.1191</v>
+        <v>-21.99829999999999</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.2778</v>
+        <v>-22.42830000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.46650000000001</v>
+        <v>-21.4396</v>
       </c>
       <c r="B66" t="n">
-        <v>5.352899999999997</v>
+        <v>5.231399999999999</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.052299999999999</v>
+        <v>5.213500000000002</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.7242</v>
+        <v>-7.537800000000002</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.077299999999994</v>
+        <v>-7.696499999999994</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.665000000000006</v>
+        <v>10.0206</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.282300000000001</v>
+        <v>5.676900000000001</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.588599999999992</v>
+        <v>-8.608999999999995</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1995,13 +1995,13 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>4.671099999999996</v>
+        <v>4.731099999999997</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.197800000000004</v>
+        <v>-6.219700000000001</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.3247</v>
+        <v>-12.2447</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2080,10 +2080,10 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>6.3285</v>
+        <v>6.589399999999997</v>
       </c>
       <c r="C97" t="n">
-        <v>-12.6206</v>
+        <v>-12.4114</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.9859</v>
+        <v>-22.0963</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.281499999999996</v>
+        <v>-8.032999999999996</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
